--- a/Project/B_Stack_Demo/Bstackdemo_Testcases.xlsx
+++ b/Project/B_Stack_Demo/Bstackdemo_Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tops_My_Work\Project\B_Stack_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925F892-DF8D-4CC7-9CB7-DFF2F5F95F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137ED5A8-647D-478B-824C-09C5337A4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{550407AB-C552-4581-9AE4-543459AEF690}"/>
   </bookViews>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A699C9A4-EB59-4CB4-8F50-98F2F96B8C0E}">
   <dimension ref="A3:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
